--- a/INTLINE/data/566/philippines.xlsx
+++ b/INTLINE/data/566/philippines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D28BA43-93AD-4B9C-AFB8-0DCB75B2424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8548D4B-9EFD-43BB-8441-4B29123EA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="2760" windowWidth="14910" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Annual!$C$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Monthly!$A$1:$EE$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quarterly!$C$1:$AW$82</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -5086,7 +5087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7263,10 +7264,10 @@
   <dimension ref="A1:AW92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19564,19 +19565,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:EE106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="109.375" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="51.625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="53.125" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="221" customWidth="1"/>
@@ -19994,7 +19996,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="2" spans="1:135">
+    <row r="2" spans="1:135" hidden="1">
       <c r="A2" t="s">
         <v>916</v>
       </c>
@@ -20397,7 +20399,7 @@
       <c r="ED2" s="3"/>
       <c r="EE2" s="3"/>
     </row>
-    <row r="3" spans="1:135" ht="16.5" customHeight="1">
+    <row r="3" spans="1:135" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" t="s">
         <v>916</v>
       </c>
@@ -20800,7 +20802,7 @@
       <c r="ED3" s="3"/>
       <c r="EE3" s="3"/>
     </row>
-    <row r="4" spans="1:135">
+    <row r="4" spans="1:135" hidden="1">
       <c r="A4" t="s">
         <v>916</v>
       </c>
@@ -21203,7 +21205,7 @@
       <c r="ED4" s="3"/>
       <c r="EE4" s="3"/>
     </row>
-    <row r="5" spans="1:135">
+    <row r="5" spans="1:135" hidden="1">
       <c r="A5" t="s">
         <v>916</v>
       </c>
@@ -21606,7 +21608,7 @@
       <c r="ED5" s="3"/>
       <c r="EE5" s="3"/>
     </row>
-    <row r="6" spans="1:135">
+    <row r="6" spans="1:135" hidden="1">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -22009,7 +22011,7 @@
       <c r="ED6" s="3"/>
       <c r="EE6" s="3"/>
     </row>
-    <row r="7" spans="1:135">
+    <row r="7" spans="1:135" hidden="1">
       <c r="A7" t="s">
         <v>912</v>
       </c>
@@ -22412,7 +22414,7 @@
       <c r="ED7" s="3"/>
       <c r="EE7" s="3"/>
     </row>
-    <row r="8" spans="1:135">
+    <row r="8" spans="1:135" hidden="1">
       <c r="A8" t="s">
         <v>912</v>
       </c>
@@ -22815,7 +22817,7 @@
       <c r="ED8" s="3"/>
       <c r="EE8" s="3"/>
     </row>
-    <row r="9" spans="1:135">
+    <row r="9" spans="1:135" hidden="1">
       <c r="A9" t="s">
         <v>913</v>
       </c>
@@ -23218,7 +23220,7 @@
       <c r="ED9" s="3"/>
       <c r="EE9" s="3"/>
     </row>
-    <row r="10" spans="1:135">
+    <row r="10" spans="1:135" hidden="1">
       <c r="A10" t="s">
         <v>913</v>
       </c>
@@ -23621,7 +23623,7 @@
       <c r="ED10" s="3"/>
       <c r="EE10" s="3"/>
     </row>
-    <row r="11" spans="1:135">
+    <row r="11" spans="1:135" hidden="1">
       <c r="A11" t="s">
         <v>913</v>
       </c>
@@ -24024,7 +24026,7 @@
       <c r="ED11" s="3"/>
       <c r="EE11" s="3"/>
     </row>
-    <row r="12" spans="1:135">
+    <row r="12" spans="1:135" hidden="1">
       <c r="A12" t="s">
         <v>914</v>
       </c>
@@ -24427,7 +24429,7 @@
       <c r="ED12" s="3"/>
       <c r="EE12" s="3"/>
     </row>
-    <row r="13" spans="1:135">
+    <row r="13" spans="1:135" hidden="1">
       <c r="A13" t="s">
         <v>914</v>
       </c>
@@ -24830,7 +24832,7 @@
       <c r="ED13" s="3"/>
       <c r="EE13" s="3"/>
     </row>
-    <row r="14" spans="1:135">
+    <row r="14" spans="1:135" hidden="1">
       <c r="A14" t="s">
         <v>914</v>
       </c>
@@ -25233,7 +25235,7 @@
       <c r="ED14" s="3"/>
       <c r="EE14" s="3"/>
     </row>
-    <row r="15" spans="1:135">
+    <row r="15" spans="1:135" hidden="1">
       <c r="A15" t="s">
         <v>916</v>
       </c>
@@ -25636,7 +25638,7 @@
       <c r="ED15" s="3"/>
       <c r="EE15" s="3"/>
     </row>
-    <row r="16" spans="1:135">
+    <row r="16" spans="1:135" hidden="1">
       <c r="A16" t="s">
         <v>911</v>
       </c>
@@ -26039,7 +26041,7 @@
       <c r="ED16" s="3"/>
       <c r="EE16" s="3"/>
     </row>
-    <row r="17" spans="1:135">
+    <row r="17" spans="1:135" hidden="1">
       <c r="A17" t="s">
         <v>911</v>
       </c>
@@ -26442,7 +26444,7 @@
       <c r="ED17" s="3"/>
       <c r="EE17" s="3"/>
     </row>
-    <row r="18" spans="1:135">
+    <row r="18" spans="1:135" hidden="1">
       <c r="A18" s="22" t="s">
         <v>909</v>
       </c>
@@ -26845,7 +26847,7 @@
       <c r="ED18" s="3"/>
       <c r="EE18" s="3"/>
     </row>
-    <row r="19" spans="1:135">
+    <row r="19" spans="1:135" hidden="1">
       <c r="A19" t="s">
         <v>909</v>
       </c>
@@ -27248,7 +27250,7 @@
       <c r="ED19" s="3"/>
       <c r="EE19" s="3"/>
     </row>
-    <row r="20" spans="1:135">
+    <row r="20" spans="1:135" hidden="1">
       <c r="A20" t="s">
         <v>909</v>
       </c>
@@ -27651,7 +27653,7 @@
       <c r="ED20" s="3"/>
       <c r="EE20" s="3"/>
     </row>
-    <row r="21" spans="1:135">
+    <row r="21" spans="1:135" hidden="1">
       <c r="A21" t="s">
         <v>916</v>
       </c>
@@ -28054,7 +28056,7 @@
       <c r="ED21" s="3"/>
       <c r="EE21" s="3"/>
     </row>
-    <row r="22" spans="1:135">
+    <row r="22" spans="1:135" hidden="1">
       <c r="A22" t="s">
         <v>916</v>
       </c>
@@ -28457,7 +28459,7 @@
       <c r="ED22" s="3"/>
       <c r="EE22" s="3"/>
     </row>
-    <row r="23" spans="1:135">
+    <row r="23" spans="1:135" hidden="1">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -28860,7 +28862,7 @@
       <c r="ED23" s="3"/>
       <c r="EE23" s="3"/>
     </row>
-    <row r="24" spans="1:135">
+    <row r="24" spans="1:135" hidden="1">
       <c r="A24" t="s">
         <v>916</v>
       </c>
@@ -29263,7 +29265,7 @@
       <c r="ED24" s="3"/>
       <c r="EE24" s="3"/>
     </row>
-    <row r="25" spans="1:135">
+    <row r="25" spans="1:135" hidden="1">
       <c r="A25" t="s">
         <v>916</v>
       </c>
@@ -29668,7 +29670,7 @@
       </c>
       <c r="EE25" s="3"/>
     </row>
-    <row r="26" spans="1:135">
+    <row r="26" spans="1:135" hidden="1">
       <c r="A26" t="s">
         <v>916</v>
       </c>
@@ -30073,7 +30075,7 @@
       </c>
       <c r="EE26" s="3"/>
     </row>
-    <row r="27" spans="1:135">
+    <row r="27" spans="1:135" hidden="1">
       <c r="C27" t="s">
         <v>515</v>
       </c>
@@ -30472,7 +30474,7 @@
       </c>
       <c r="EE27" s="3"/>
     </row>
-    <row r="28" spans="1:135">
+    <row r="28" spans="1:135" hidden="1">
       <c r="C28" t="s">
         <v>471</v>
       </c>
@@ -32092,7 +32094,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="32" spans="1:135">
+    <row r="32" spans="1:135" hidden="1">
       <c r="C32" t="s">
         <v>413</v>
       </c>
@@ -37351,7 +37353,7 @@
       </c>
       <c r="EE44" s="3"/>
     </row>
-    <row r="45" spans="1:135">
+    <row r="45" spans="1:135" ht="115.5">
       <c r="A45" t="s">
         <v>879</v>
       </c>
@@ -47071,7 +47073,7 @@
       </c>
       <c r="EE68" s="3"/>
     </row>
-    <row r="69" spans="1:135">
+    <row r="69" spans="1:135" hidden="1">
       <c r="C69" t="s">
         <v>699</v>
       </c>
@@ -47454,7 +47456,7 @@
         <v>1.6204000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:135">
+    <row r="70" spans="1:135" hidden="1">
       <c r="C70" t="s">
         <v>606</v>
       </c>
@@ -47815,7 +47817,7 @@
       <c r="ED70" s="3"/>
       <c r="EE70" s="3"/>
     </row>
-    <row r="71" spans="1:135">
+    <row r="71" spans="1:135" hidden="1">
       <c r="C71" t="s">
         <v>406</v>
       </c>
@@ -48216,7 +48218,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="72" spans="1:135">
+    <row r="72" spans="1:135" hidden="1">
       <c r="C72" t="s">
         <v>512</v>
       </c>
@@ -49427,7 +49429,7 @@
       </c>
       <c r="EE74" s="3"/>
     </row>
-    <row r="75" spans="1:135">
+    <row r="75" spans="1:135" hidden="1">
       <c r="A75" t="s">
         <v>918</v>
       </c>
@@ -49834,7 +49836,7 @@
         <v>108046.02132374</v>
       </c>
     </row>
-    <row r="76" spans="1:135">
+    <row r="76" spans="1:135" hidden="1">
       <c r="A76" t="s">
         <v>918</v>
       </c>
@@ -50241,7 +50243,7 @@
         <v>9155.0938787100004</v>
       </c>
     </row>
-    <row r="77" spans="1:135">
+    <row r="77" spans="1:135" hidden="1">
       <c r="A77" t="s">
         <v>918</v>
       </c>
@@ -50648,7 +50650,7 @@
         <v>3996.3908492400001</v>
       </c>
     </row>
-    <row r="78" spans="1:135">
+    <row r="78" spans="1:135" hidden="1">
       <c r="A78" t="s">
         <v>918</v>
       </c>
@@ -51055,7 +51057,7 @@
         <v>90679.372433509998</v>
       </c>
     </row>
-    <row r="79" spans="1:135">
+    <row r="79" spans="1:135" hidden="1">
       <c r="A79" t="s">
         <v>918</v>
       </c>
@@ -51462,7 +51464,7 @@
         <v>3417.9158101600001</v>
       </c>
     </row>
-    <row r="80" spans="1:135">
+    <row r="80" spans="1:135" hidden="1">
       <c r="C80" t="s">
         <v>646</v>
       </c>
@@ -51863,7 +51865,7 @@
         <v>1.066090909091</v>
       </c>
     </row>
-    <row r="81" spans="1:135">
+    <row r="81" spans="1:135" hidden="1">
       <c r="C81" t="s">
         <v>717</v>
       </c>
@@ -52669,7 +52671,7 @@
       </c>
       <c r="EE82" s="3"/>
     </row>
-    <row r="83" spans="1:135">
+    <row r="83" spans="1:135" hidden="1">
       <c r="C83" t="s">
         <v>475</v>
       </c>
@@ -53068,7 +53070,7 @@
       </c>
       <c r="EE83" s="3"/>
     </row>
-    <row r="84" spans="1:135">
+    <row r="84" spans="1:135" hidden="1">
       <c r="C84" t="s">
         <v>442</v>
       </c>
@@ -53467,7 +53469,7 @@
       </c>
       <c r="EE84" s="3"/>
     </row>
-    <row r="85" spans="1:135" s="13" customFormat="1">
+    <row r="85" spans="1:135" s="13" customFormat="1" hidden="1">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" t="s">
@@ -53868,7 +53870,7 @@
       </c>
       <c r="EE85" s="3"/>
     </row>
-    <row r="86" spans="1:135">
+    <row r="86" spans="1:135" hidden="1">
       <c r="C86" t="s">
         <v>532</v>
       </c>
@@ -54267,7 +54269,7 @@
       </c>
       <c r="EE86" s="3"/>
     </row>
-    <row r="87" spans="1:135">
+    <row r="87" spans="1:135" hidden="1">
       <c r="C87" t="s">
         <v>616</v>
       </c>
@@ -58441,6 +58443,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:EE96" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Philippine Statistics Authority (PSA)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EE107">
     <sortCondition ref="F1:F107"/>
   </sortState>

--- a/INTLINE/data/566/philippines.xlsx
+++ b/INTLINE/data/566/philippines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8548D4B-9EFD-43BB-8441-4B29123EA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8BAB66-5F16-4B98-88EE-8A55726B617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="2760" windowWidth="14910" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -19996,7 +19996,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="2" spans="1:135" hidden="1">
+    <row r="2" spans="1:135">
       <c r="A2" t="s">
         <v>916</v>
       </c>
@@ -20399,7 +20399,7 @@
       <c r="ED2" s="3"/>
       <c r="EE2" s="3"/>
     </row>
-    <row r="3" spans="1:135" ht="16.5" hidden="1" customHeight="1">
+    <row r="3" spans="1:135" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>916</v>
       </c>
@@ -20802,7 +20802,7 @@
       <c r="ED3" s="3"/>
       <c r="EE3" s="3"/>
     </row>
-    <row r="4" spans="1:135" hidden="1">
+    <row r="4" spans="1:135">
       <c r="A4" t="s">
         <v>916</v>
       </c>
@@ -21205,7 +21205,7 @@
       <c r="ED4" s="3"/>
       <c r="EE4" s="3"/>
     </row>
-    <row r="5" spans="1:135" hidden="1">
+    <row r="5" spans="1:135">
       <c r="A5" t="s">
         <v>916</v>
       </c>
@@ -21608,7 +21608,7 @@
       <c r="ED5" s="3"/>
       <c r="EE5" s="3"/>
     </row>
-    <row r="6" spans="1:135" hidden="1">
+    <row r="6" spans="1:135">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -22011,7 +22011,7 @@
       <c r="ED6" s="3"/>
       <c r="EE6" s="3"/>
     </row>
-    <row r="7" spans="1:135" hidden="1">
+    <row r="7" spans="1:135">
       <c r="A7" t="s">
         <v>912</v>
       </c>
@@ -22414,7 +22414,7 @@
       <c r="ED7" s="3"/>
       <c r="EE7" s="3"/>
     </row>
-    <row r="8" spans="1:135" hidden="1">
+    <row r="8" spans="1:135">
       <c r="A8" t="s">
         <v>912</v>
       </c>
@@ -22817,7 +22817,7 @@
       <c r="ED8" s="3"/>
       <c r="EE8" s="3"/>
     </row>
-    <row r="9" spans="1:135" hidden="1">
+    <row r="9" spans="1:135">
       <c r="A9" t="s">
         <v>913</v>
       </c>
@@ -23220,7 +23220,7 @@
       <c r="ED9" s="3"/>
       <c r="EE9" s="3"/>
     </row>
-    <row r="10" spans="1:135" hidden="1">
+    <row r="10" spans="1:135">
       <c r="A10" t="s">
         <v>913</v>
       </c>
@@ -23623,7 +23623,7 @@
       <c r="ED10" s="3"/>
       <c r="EE10" s="3"/>
     </row>
-    <row r="11" spans="1:135" hidden="1">
+    <row r="11" spans="1:135">
       <c r="A11" t="s">
         <v>913</v>
       </c>
@@ -24026,7 +24026,7 @@
       <c r="ED11" s="3"/>
       <c r="EE11" s="3"/>
     </row>
-    <row r="12" spans="1:135" hidden="1">
+    <row r="12" spans="1:135">
       <c r="A12" t="s">
         <v>914</v>
       </c>
@@ -24429,7 +24429,7 @@
       <c r="ED12" s="3"/>
       <c r="EE12" s="3"/>
     </row>
-    <row r="13" spans="1:135" hidden="1">
+    <row r="13" spans="1:135">
       <c r="A13" t="s">
         <v>914</v>
       </c>
@@ -24832,7 +24832,7 @@
       <c r="ED13" s="3"/>
       <c r="EE13" s="3"/>
     </row>
-    <row r="14" spans="1:135" hidden="1">
+    <row r="14" spans="1:135">
       <c r="A14" t="s">
         <v>914</v>
       </c>
@@ -25235,7 +25235,7 @@
       <c r="ED14" s="3"/>
       <c r="EE14" s="3"/>
     </row>
-    <row r="15" spans="1:135" hidden="1">
+    <row r="15" spans="1:135">
       <c r="A15" t="s">
         <v>916</v>
       </c>
@@ -25638,7 +25638,7 @@
       <c r="ED15" s="3"/>
       <c r="EE15" s="3"/>
     </row>
-    <row r="16" spans="1:135" hidden="1">
+    <row r="16" spans="1:135">
       <c r="A16" t="s">
         <v>911</v>
       </c>
@@ -26041,7 +26041,7 @@
       <c r="ED16" s="3"/>
       <c r="EE16" s="3"/>
     </row>
-    <row r="17" spans="1:135" hidden="1">
+    <row r="17" spans="1:135">
       <c r="A17" t="s">
         <v>911</v>
       </c>
@@ -26444,7 +26444,7 @@
       <c r="ED17" s="3"/>
       <c r="EE17" s="3"/>
     </row>
-    <row r="18" spans="1:135" hidden="1">
+    <row r="18" spans="1:135">
       <c r="A18" s="22" t="s">
         <v>909</v>
       </c>
@@ -26847,7 +26847,7 @@
       <c r="ED18" s="3"/>
       <c r="EE18" s="3"/>
     </row>
-    <row r="19" spans="1:135" hidden="1">
+    <row r="19" spans="1:135">
       <c r="A19" t="s">
         <v>909</v>
       </c>
@@ -27250,7 +27250,7 @@
       <c r="ED19" s="3"/>
       <c r="EE19" s="3"/>
     </row>
-    <row r="20" spans="1:135" hidden="1">
+    <row r="20" spans="1:135">
       <c r="A20" t="s">
         <v>909</v>
       </c>
@@ -27653,7 +27653,7 @@
       <c r="ED20" s="3"/>
       <c r="EE20" s="3"/>
     </row>
-    <row r="21" spans="1:135" hidden="1">
+    <row r="21" spans="1:135">
       <c r="A21" t="s">
         <v>916</v>
       </c>
@@ -28056,7 +28056,7 @@
       <c r="ED21" s="3"/>
       <c r="EE21" s="3"/>
     </row>
-    <row r="22" spans="1:135" hidden="1">
+    <row r="22" spans="1:135">
       <c r="A22" t="s">
         <v>916</v>
       </c>
@@ -28459,7 +28459,7 @@
       <c r="ED22" s="3"/>
       <c r="EE22" s="3"/>
     </row>
-    <row r="23" spans="1:135" hidden="1">
+    <row r="23" spans="1:135">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -28862,7 +28862,7 @@
       <c r="ED23" s="3"/>
       <c r="EE23" s="3"/>
     </row>
-    <row r="24" spans="1:135" hidden="1">
+    <row r="24" spans="1:135">
       <c r="A24" t="s">
         <v>916</v>
       </c>
@@ -29265,7 +29265,7 @@
       <c r="ED24" s="3"/>
       <c r="EE24" s="3"/>
     </row>
-    <row r="25" spans="1:135" hidden="1">
+    <row r="25" spans="1:135">
       <c r="A25" t="s">
         <v>916</v>
       </c>
@@ -29670,7 +29670,7 @@
       </c>
       <c r="EE25" s="3"/>
     </row>
-    <row r="26" spans="1:135" hidden="1">
+    <row r="26" spans="1:135">
       <c r="A26" t="s">
         <v>916</v>
       </c>
@@ -30873,7 +30873,7 @@
       </c>
       <c r="EE28" s="3"/>
     </row>
-    <row r="29" spans="1:135">
+    <row r="29" spans="1:135" hidden="1">
       <c r="A29" t="s">
         <v>904</v>
       </c>
@@ -31280,7 +31280,7 @@
         <v>129.30000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:135">
+    <row r="30" spans="1:135" hidden="1">
       <c r="A30" t="s">
         <v>903</v>
       </c>
@@ -31687,7 +31687,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:135">
+    <row r="31" spans="1:135" hidden="1">
       <c r="A31" t="s">
         <v>907</v>
       </c>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="EE32" s="3"/>
     </row>
-    <row r="33" spans="1:135">
+    <row r="33" spans="1:135" hidden="1">
       <c r="A33" t="s">
         <v>879</v>
       </c>
@@ -32898,7 +32898,7 @@
       </c>
       <c r="EE33" s="3"/>
     </row>
-    <row r="34" spans="1:135">
+    <row r="34" spans="1:135" hidden="1">
       <c r="A34" t="s">
         <v>879</v>
       </c>
@@ -33303,7 +33303,7 @@
       </c>
       <c r="EE34" s="3"/>
     </row>
-    <row r="35" spans="1:135">
+    <row r="35" spans="1:135" hidden="1">
       <c r="A35" t="s">
         <v>879</v>
       </c>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="EE35" s="3"/>
     </row>
-    <row r="36" spans="1:135">
+    <row r="36" spans="1:135" hidden="1">
       <c r="A36" t="s">
         <v>879</v>
       </c>
@@ -34113,7 +34113,7 @@
       </c>
       <c r="EE36" s="3"/>
     </row>
-    <row r="37" spans="1:135">
+    <row r="37" spans="1:135" hidden="1">
       <c r="A37" t="s">
         <v>879</v>
       </c>
@@ -34518,7 +34518,7 @@
       </c>
       <c r="EE37" s="3"/>
     </row>
-    <row r="38" spans="1:135">
+    <row r="38" spans="1:135" hidden="1">
       <c r="A38" t="s">
         <v>879</v>
       </c>
@@ -34923,7 +34923,7 @@
       </c>
       <c r="EE38" s="3"/>
     </row>
-    <row r="39" spans="1:135">
+    <row r="39" spans="1:135" hidden="1">
       <c r="A39" t="s">
         <v>879</v>
       </c>
@@ -35328,7 +35328,7 @@
       </c>
       <c r="EE39" s="3"/>
     </row>
-    <row r="40" spans="1:135">
+    <row r="40" spans="1:135" hidden="1">
       <c r="A40" t="s">
         <v>879</v>
       </c>
@@ -35733,7 +35733,7 @@
       </c>
       <c r="EE40" s="3"/>
     </row>
-    <row r="41" spans="1:135">
+    <row r="41" spans="1:135" hidden="1">
       <c r="A41" t="s">
         <v>879</v>
       </c>
@@ -36138,7 +36138,7 @@
       </c>
       <c r="EE41" s="3"/>
     </row>
-    <row r="42" spans="1:135">
+    <row r="42" spans="1:135" hidden="1">
       <c r="A42" t="s">
         <v>879</v>
       </c>
@@ -36543,7 +36543,7 @@
       </c>
       <c r="EE42" s="3"/>
     </row>
-    <row r="43" spans="1:135">
+    <row r="43" spans="1:135" hidden="1">
       <c r="A43" t="s">
         <v>879</v>
       </c>
@@ -36948,7 +36948,7 @@
       </c>
       <c r="EE43" s="3"/>
     </row>
-    <row r="44" spans="1:135">
+    <row r="44" spans="1:135" hidden="1">
       <c r="A44" t="s">
         <v>879</v>
       </c>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="EE44" s="3"/>
     </row>
-    <row r="45" spans="1:135" ht="115.5">
+    <row r="45" spans="1:135" ht="115.5" hidden="1">
       <c r="A45" t="s">
         <v>879</v>
       </c>
@@ -37758,7 +37758,7 @@
       </c>
       <c r="EE45" s="3"/>
     </row>
-    <row r="46" spans="1:135">
+    <row r="46" spans="1:135" hidden="1">
       <c r="A46" t="s">
         <v>879</v>
       </c>
@@ -38163,7 +38163,7 @@
       </c>
       <c r="EE46" s="3"/>
     </row>
-    <row r="47" spans="1:135">
+    <row r="47" spans="1:135" hidden="1">
       <c r="A47" t="s">
         <v>879</v>
       </c>
@@ -38568,7 +38568,7 @@
       </c>
       <c r="EE47" s="3"/>
     </row>
-    <row r="48" spans="1:135">
+    <row r="48" spans="1:135" hidden="1">
       <c r="A48" t="s">
         <v>879</v>
       </c>
@@ -38973,7 +38973,7 @@
       </c>
       <c r="EE48" s="3"/>
     </row>
-    <row r="49" spans="1:135">
+    <row r="49" spans="1:135" hidden="1">
       <c r="A49" t="s">
         <v>879</v>
       </c>
@@ -39378,7 +39378,7 @@
       </c>
       <c r="EE49" s="3"/>
     </row>
-    <row r="50" spans="1:135">
+    <row r="50" spans="1:135" hidden="1">
       <c r="A50" t="s">
         <v>879</v>
       </c>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="EE50" s="3"/>
     </row>
-    <row r="51" spans="1:135">
+    <row r="51" spans="1:135" hidden="1">
       <c r="A51" t="s">
         <v>901</v>
       </c>
@@ -40188,7 +40188,7 @@
       </c>
       <c r="EE51" s="3"/>
     </row>
-    <row r="52" spans="1:135">
+    <row r="52" spans="1:135" hidden="1">
       <c r="A52" t="s">
         <v>901</v>
       </c>
@@ -40593,7 +40593,7 @@
       </c>
       <c r="EE52" s="3"/>
     </row>
-    <row r="53" spans="1:135">
+    <row r="53" spans="1:135" hidden="1">
       <c r="A53" t="s">
         <v>901</v>
       </c>
@@ -40998,7 +40998,7 @@
       </c>
       <c r="EE53" s="3"/>
     </row>
-    <row r="54" spans="1:135">
+    <row r="54" spans="1:135" hidden="1">
       <c r="A54" t="s">
         <v>901</v>
       </c>
@@ -41403,7 +41403,7 @@
       </c>
       <c r="EE54" s="3"/>
     </row>
-    <row r="55" spans="1:135" s="13" customFormat="1">
+    <row r="55" spans="1:135" s="13" customFormat="1" hidden="1">
       <c r="A55" t="s">
         <v>901</v>
       </c>
@@ -41808,7 +41808,7 @@
       </c>
       <c r="EE55" s="3"/>
     </row>
-    <row r="56" spans="1:135">
+    <row r="56" spans="1:135" hidden="1">
       <c r="A56" t="s">
         <v>901</v>
       </c>
@@ -42213,7 +42213,7 @@
       </c>
       <c r="EE56" s="3"/>
     </row>
-    <row r="57" spans="1:135">
+    <row r="57" spans="1:135" hidden="1">
       <c r="A57" t="s">
         <v>901</v>
       </c>
@@ -42618,7 +42618,7 @@
       </c>
       <c r="EE57" s="3"/>
     </row>
-    <row r="58" spans="1:135">
+    <row r="58" spans="1:135" hidden="1">
       <c r="A58" t="s">
         <v>901</v>
       </c>
@@ -43023,7 +43023,7 @@
       </c>
       <c r="EE58" s="3"/>
     </row>
-    <row r="59" spans="1:135">
+    <row r="59" spans="1:135" hidden="1">
       <c r="A59" t="s">
         <v>901</v>
       </c>
@@ -43428,7 +43428,7 @@
       </c>
       <c r="EE59" s="3"/>
     </row>
-    <row r="60" spans="1:135">
+    <row r="60" spans="1:135" hidden="1">
       <c r="A60" t="s">
         <v>901</v>
       </c>
@@ -43833,7 +43833,7 @@
       </c>
       <c r="EE60" s="3"/>
     </row>
-    <row r="61" spans="1:135">
+    <row r="61" spans="1:135" hidden="1">
       <c r="A61" t="s">
         <v>901</v>
       </c>
@@ -44238,7 +44238,7 @@
       </c>
       <c r="EE61" s="3"/>
     </row>
-    <row r="62" spans="1:135">
+    <row r="62" spans="1:135" hidden="1">
       <c r="A62" t="s">
         <v>901</v>
       </c>
@@ -44643,7 +44643,7 @@
       </c>
       <c r="EE62" s="3"/>
     </row>
-    <row r="63" spans="1:135">
+    <row r="63" spans="1:135" hidden="1">
       <c r="A63" t="s">
         <v>901</v>
       </c>
@@ -45048,7 +45048,7 @@
       </c>
       <c r="EE63" s="3"/>
     </row>
-    <row r="64" spans="1:135">
+    <row r="64" spans="1:135" hidden="1">
       <c r="A64" t="s">
         <v>901</v>
       </c>
@@ -45453,7 +45453,7 @@
       </c>
       <c r="EE64" s="3"/>
     </row>
-    <row r="65" spans="1:135">
+    <row r="65" spans="1:135" hidden="1">
       <c r="A65" t="s">
         <v>901</v>
       </c>
@@ -45858,7 +45858,7 @@
       </c>
       <c r="EE65" s="3"/>
     </row>
-    <row r="66" spans="1:135">
+    <row r="66" spans="1:135" hidden="1">
       <c r="A66" t="s">
         <v>901</v>
       </c>
@@ -46263,7 +46263,7 @@
       </c>
       <c r="EE66" s="3"/>
     </row>
-    <row r="67" spans="1:135">
+    <row r="67" spans="1:135" hidden="1">
       <c r="A67" t="s">
         <v>901</v>
       </c>
@@ -46668,7 +46668,7 @@
       </c>
       <c r="EE67" s="3"/>
     </row>
-    <row r="68" spans="1:135">
+    <row r="68" spans="1:135" hidden="1">
       <c r="A68" t="s">
         <v>901</v>
       </c>
@@ -47073,7 +47073,7 @@
       </c>
       <c r="EE68" s="3"/>
     </row>
-    <row r="69" spans="1:135" hidden="1">
+    <row r="69" spans="1:135">
       <c r="C69" t="s">
         <v>699</v>
       </c>
@@ -47456,7 +47456,7 @@
         <v>1.6204000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:135" hidden="1">
+    <row r="70" spans="1:135">
       <c r="C70" t="s">
         <v>606</v>
       </c>
@@ -47817,7 +47817,7 @@
       <c r="ED70" s="3"/>
       <c r="EE70" s="3"/>
     </row>
-    <row r="71" spans="1:135" hidden="1">
+    <row r="71" spans="1:135">
       <c r="C71" t="s">
         <v>406</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="72" spans="1:135" hidden="1">
+    <row r="72" spans="1:135">
       <c r="C72" t="s">
         <v>512</v>
       </c>
@@ -48619,7 +48619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:135">
+    <row r="73" spans="1:135" hidden="1">
       <c r="A73" s="16" t="s">
         <v>961</v>
       </c>
@@ -49024,7 +49024,7 @@
       </c>
       <c r="EE73" s="3"/>
     </row>
-    <row r="74" spans="1:135">
+    <row r="74" spans="1:135" hidden="1">
       <c r="A74" t="s">
         <v>908</v>
       </c>
@@ -49429,7 +49429,7 @@
       </c>
       <c r="EE74" s="3"/>
     </row>
-    <row r="75" spans="1:135" hidden="1">
+    <row r="75" spans="1:135">
       <c r="A75" t="s">
         <v>918</v>
       </c>
@@ -49836,7 +49836,7 @@
         <v>108046.02132374</v>
       </c>
     </row>
-    <row r="76" spans="1:135" hidden="1">
+    <row r="76" spans="1:135">
       <c r="A76" t="s">
         <v>918</v>
       </c>
@@ -50243,7 +50243,7 @@
         <v>9155.0938787100004</v>
       </c>
     </row>
-    <row r="77" spans="1:135" hidden="1">
+    <row r="77" spans="1:135">
       <c r="A77" t="s">
         <v>918</v>
       </c>
@@ -50650,7 +50650,7 @@
         <v>3996.3908492400001</v>
       </c>
     </row>
-    <row r="78" spans="1:135" hidden="1">
+    <row r="78" spans="1:135">
       <c r="A78" t="s">
         <v>918</v>
       </c>
@@ -51057,7 +51057,7 @@
         <v>90679.372433509998</v>
       </c>
     </row>
-    <row r="79" spans="1:135" hidden="1">
+    <row r="79" spans="1:135">
       <c r="A79" t="s">
         <v>918</v>
       </c>
@@ -51464,7 +51464,7 @@
         <v>3417.9158101600001</v>
       </c>
     </row>
-    <row r="80" spans="1:135" hidden="1">
+    <row r="80" spans="1:135">
       <c r="C80" t="s">
         <v>646</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>1.066090909091</v>
       </c>
     </row>
-    <row r="81" spans="1:135" hidden="1">
+    <row r="81" spans="1:135">
       <c r="C81" t="s">
         <v>717</v>
       </c>
@@ -52266,7 +52266,7 @@
         <v>1.4117380952380001</v>
       </c>
     </row>
-    <row r="82" spans="1:135" s="13" customFormat="1">
+    <row r="82" spans="1:135" s="13" customFormat="1" hidden="1">
       <c r="A82" t="s">
         <v>868</v>
       </c>
@@ -52671,7 +52671,7 @@
       </c>
       <c r="EE82" s="3"/>
     </row>
-    <row r="83" spans="1:135" hidden="1">
+    <row r="83" spans="1:135">
       <c r="C83" t="s">
         <v>475</v>
       </c>
@@ -53070,7 +53070,7 @@
       </c>
       <c r="EE83" s="3"/>
     </row>
-    <row r="84" spans="1:135" hidden="1">
+    <row r="84" spans="1:135">
       <c r="C84" t="s">
         <v>442</v>
       </c>
@@ -53469,7 +53469,7 @@
       </c>
       <c r="EE84" s="3"/>
     </row>
-    <row r="85" spans="1:135" s="13" customFormat="1" hidden="1">
+    <row r="85" spans="1:135" s="13" customFormat="1">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" t="s">
@@ -53870,7 +53870,7 @@
       </c>
       <c r="EE85" s="3"/>
     </row>
-    <row r="86" spans="1:135" hidden="1">
+    <row r="86" spans="1:135">
       <c r="C86" t="s">
         <v>532</v>
       </c>
@@ -54269,7 +54269,7 @@
       </c>
       <c r="EE86" s="3"/>
     </row>
-    <row r="87" spans="1:135" hidden="1">
+    <row r="87" spans="1:135">
       <c r="C87" t="s">
         <v>616</v>
       </c>
@@ -54668,7 +54668,7 @@
       </c>
       <c r="EE87" s="3"/>
     </row>
-    <row r="88" spans="1:135">
+    <row r="88" spans="1:135" hidden="1">
       <c r="A88" t="s">
         <v>867</v>
       </c>
@@ -55071,7 +55071,7 @@
       <c r="ED88" s="3"/>
       <c r="EE88" s="3"/>
     </row>
-    <row r="89" spans="1:135">
+    <row r="89" spans="1:135" hidden="1">
       <c r="A89" t="s">
         <v>867</v>
       </c>
@@ -55474,7 +55474,7 @@
       <c r="ED89" s="3"/>
       <c r="EE89" s="3"/>
     </row>
-    <row r="90" spans="1:135">
+    <row r="90" spans="1:135" hidden="1">
       <c r="A90" t="s">
         <v>867</v>
       </c>
@@ -55877,7 +55877,7 @@
       <c r="ED90" s="3"/>
       <c r="EE90" s="3"/>
     </row>
-    <row r="91" spans="1:135">
+    <row r="91" spans="1:135" hidden="1">
       <c r="A91" t="s">
         <v>867</v>
       </c>
@@ -56280,7 +56280,7 @@
       <c r="ED91" s="3"/>
       <c r="EE91" s="3"/>
     </row>
-    <row r="92" spans="1:135">
+    <row r="92" spans="1:135" hidden="1">
       <c r="A92" t="s">
         <v>867</v>
       </c>
@@ -56683,7 +56683,7 @@
       <c r="ED92" s="3"/>
       <c r="EE92" s="3"/>
     </row>
-    <row r="93" spans="1:135">
+    <row r="93" spans="1:135" hidden="1">
       <c r="A93" t="s">
         <v>867</v>
       </c>
@@ -57086,7 +57086,7 @@
       <c r="ED93" s="3"/>
       <c r="EE93" s="3"/>
     </row>
-    <row r="94" spans="1:135">
+    <row r="94" spans="1:135" hidden="1">
       <c r="A94" t="s">
         <v>867</v>
       </c>
@@ -57489,7 +57489,7 @@
       <c r="ED94" s="3"/>
       <c r="EE94" s="3"/>
     </row>
-    <row r="95" spans="1:135">
+    <row r="95" spans="1:135" hidden="1">
       <c r="A95" t="s">
         <v>867</v>
       </c>
@@ -57892,7 +57892,7 @@
       <c r="ED95" s="3"/>
       <c r="EE95" s="3"/>
     </row>
-    <row r="96" spans="1:135">
+    <row r="96" spans="1:135" hidden="1">
       <c r="A96" s="16" t="s">
         <v>960</v>
       </c>
@@ -58446,7 +58446,7 @@
   <autoFilter ref="A1:EE96" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="Philippine Statistics Authority (PSA)"/>
+        <filter val="Central Bank of the Philippines (BSP)"/>
       </filters>
     </filterColumn>
   </autoFilter>
